--- a/Data Interface Layout/Online_Retailer_SampleData.xlsx
+++ b/Data Interface Layout/Online_Retailer_SampleData.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philip\Documents\GitHub\303CEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_1082EE48AF37E1200E687CA769AE7B35C008DBCE" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{110497EA-9F1E-4048-90EC-3286658A478D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7710" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Retailer -&gt; Manufacturer" sheetId="1" r:id="rId1"/>
     <sheet name="Retailer -&gt; Logistics" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>item_no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,177 +42,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>price_per_items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>price_per_item</t>
+  </si>
+  <si>
+    <t>retailer_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected_shipment_date</t>
+  </si>
+  <si>
+    <t>manufacturer_id</t>
   </si>
   <si>
     <t>char(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double (9,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(10)</t>
+  </si>
+  <si>
+    <t>A001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-01-25  16:30:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-01-25  12:30:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-01-25  17:30:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship_to_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistic_id</t>
+  </si>
+  <si>
     <t>retailer_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expected_shippment_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ship_to_address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>varchar(200)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expected_shippment_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A005</t>
+    <t>I001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-01-25  16:30:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-01-25  17:30:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-01-25  12:30:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hong Kong A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>L001</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double (9,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manufacturer_id</t>
-  </si>
-  <si>
-    <t>char(10)</t>
-  </si>
-  <si>
-    <t>logistic_id</t>
-  </si>
-  <si>
-    <t>retailer_id</t>
-  </si>
-  <si>
-    <t>R001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -254,7 +227,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,11 +504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -556,38 +529,38 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -596,13 +569,13 @@
         <v>5.5</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -616,18 +589,18 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -636,18 +609,18 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -656,18 +629,18 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -676,13 +649,13 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -693,11 +666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G7"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -712,99 +685,99 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -813,44 +786,44 @@
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -859,13 +832,13 @@
         <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
